--- a/config_hlw/activity_xycj_config.xlsx
+++ b/config_hlw/activity_xycj_config.xlsx
@@ -238,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -265,6 +266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,6 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,7 +774,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -848,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="11">
-        <v>600</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -877,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="11">
-        <v>285</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -906,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="11">
-        <v>2400</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -935,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="11">
-        <v>600</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -964,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="11">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -993,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="11">
-        <v>900</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1022,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="11">
-        <v>600</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1051,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="11">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1080,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="11">
-        <v>2400</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1109,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="11">
-        <v>255</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
@@ -1194,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="16">
-        <v>4250</v>
+        <v>42.5</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="6"/>
@@ -1338,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="16">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="6"/>
@@ -1410,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="16">
-        <v>3200</v>
+        <v>32</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="1"/>
